--- a/biology/Origine et évolution du vivant/Tetraodontiformes/Tetraodontiformes.xlsx
+++ b/biology/Origine et évolution du vivant/Tetraodontiformes/Tetraodontiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tetraodontiformes (tétraodontiformes en français) sont un ordre de poissons à nageoires rayonnées, aussi appelé Plectognathi. Certains les classent en tant que sous-ordre des Perciformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le radical du nom de l’ordre est formé à partir des mots grecs tetra, quatre, et odous, dents[2] mais parmi les familles concernées, seuls les Tétraodontidés ont quatre plaques dentales. Ce groupe hétérogène est caractérisé par l’absence d’écailles imbriquées, des ouvertures branchiales de petite taille, une petite bouche et des pelviennes absentes ou transformées en épine enkystée dans une poche extensible[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le radical du nom de l’ordre est formé à partir des mots grecs tetra, quatre, et odous, dents mais parmi les familles concernées, seuls les Tétraodontidés ont quatre plaques dentales. Ce groupe hétérogène est caractérisé par l’absence d’écailles imbriquées, des ouvertures branchiales de petite taille, une petite bouche et des pelviennes absentes ou transformées en épine enkystée dans une poche extensible.
 Les tétraodontiformes sont représentés par environ 360 espèces réparties dans dix familles, la plupart sont des espèces marines qui demeurent à l'intérieur et autour des récifs coralliens, mais une poignée d'espèces est d'eau douce que l'on trouve dans les ruisseaux et les estuaires. Ils n'ont pas de parents proches, mais ils descendent d'une lignée d'espèces des récifs coralliens qui a émergé il y a 40 millions d'années.
 Ce sont pour la plupart des poissons trapus, solidement bâtis mais lents et facilement patauds. Ils se nourrissent donc de proies lentes délaissées par les autres poissons mais que leur puissante mâchoire leur permet d'exploiter, et pour assurer leur défense ils développent des structures dures (épines des balistes, monacanthes et triacanthes, cuirasse des poissons-coffres, piquants des diodons) et des toxines très puissantes (tétrodotoxine présente chez les poissons-ballons et les diodons). 
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cladogramme des tétraodontiformes existants est basé sur Santini et al., 2013[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cladogramme des tétraodontiformes existants est basé sur Santini et al., 2013.
 			Aracana ornata
 			Baliste ondulé (Balistapus undulatus)
 			Poisson porc-épic (Diodon hystrix)
@@ -585,7 +601,9 @@
           <t>Familles éteintes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† Bolcabalistidae
 † Cretatriacanthidae
